--- a/src/test/java/pres/auxiliary/tool/readfile/模块信息.xlsx
+++ b/src/test/java/pres/auxiliary/tool/readfile/模块信息.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\5.测试文件\1.用例生成程序测试文件\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\6.programe\tool\eclipse_java_workspace\Autest\src\test\java\pres\auxiliary\tool\readfile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{570C8C78-9796-4ADB-921E-02AA1BC045D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1580850F-DD17-4BE6-AA27-FAF4F94D99E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
   <si>
     <t>第1模块</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -232,8 +232,36 @@
     <t>第62模块</t>
   </si>
   <si>
-    <t>第err模块</t>
+    <t>第2.0模块</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1.0模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1.1模块</t>
+  </si>
+  <si>
+    <t>第1.2模块</t>
+  </si>
+  <si>
+    <t>第1.3模块</t>
+  </si>
+  <si>
+    <t>第1.4模块</t>
+  </si>
+  <si>
+    <t>第2.1模块</t>
+  </si>
+  <si>
+    <t>第2.2模块</t>
+  </si>
+  <si>
+    <t>第2.3模块</t>
+  </si>
+  <si>
+    <t>第2.4模块</t>
   </si>
 </sst>
 </file>
@@ -561,16 +589,16 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="A2" sqref="A2:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="1"/>
-    <col min="2" max="2" width="12.109375" customWidth="1"/>
+    <col min="1" max="1" width="10.875" customWidth="1"/>
+    <col min="2" max="2" width="12.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -587,7 +615,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -604,7 +632,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -621,7 +649,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -638,7 +666,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -655,7 +683,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -672,7 +700,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -689,7 +717,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -706,7 +734,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -723,7 +751,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -740,7 +768,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -754,7 +782,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -765,7 +793,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -773,12 +801,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D14" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D15" t="s">
         <v>50</v>
       </c>
@@ -786,7 +814,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D16" t="s">
         <v>51</v>
       </c>
@@ -794,7 +822,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D17" t="s">
         <v>52</v>
       </c>
@@ -811,20 +839,55 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4768852F-1E54-4909-80AD-9B117ABC971D}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" t="s">
         <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
